--- a/Transport.xlsx
+++ b/Transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GB_HomeWork\GB_Databases_HomeWork_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703C5C62-5955-4B8A-B3D5-7CC7B24E3A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C450CE-71C4-4EFF-A703-F85934851B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A12AEF52-002F-468E-986F-72E045B8D822}"/>
+    <workbookView xWindow="4080" yWindow="1665" windowWidth="21555" windowHeight="13695" xr2:uid="{A12AEF52-002F-468E-986F-72E045B8D822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,8 +288,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="170" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -400,14 +400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -415,6 +409,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BA64D4-62ED-4430-9F38-5C1AA87FAEC9}">
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,13 +760,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       <c r="J9" s="2">
         <v>31543241</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="O9" s="2">
@@ -1233,18 +1233,18 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="15" t="s">
         <v>73</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="17" t="s">
+      <c r="O16" s="15" t="s">
         <v>71</v>
       </c>
       <c r="P16" s="9"/>
@@ -1271,10 +1271,10 @@
       <c r="H17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="8"/>
       <c r="L17" s="1" t="s">
         <v>74</v>
@@ -1316,10 +1316,10 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="17"/>
       <c r="L18" s="10">
         <v>1</v>
       </c>
@@ -1333,10 +1333,10 @@
       <c r="P18" s="2">
         <v>1</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="12">
         <v>44632.395833333336</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="12">
         <v>44632.46875</v>
       </c>
       <c r="S18" s="10">
@@ -1362,10 +1362,10 @@
       <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="17"/>
       <c r="L19" s="10">
         <v>2</v>
       </c>
@@ -1379,10 +1379,10 @@
       <c r="P19" s="2">
         <v>2</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="12">
         <v>44632.416666666664</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="12">
         <v>44632.489583333336</v>
       </c>
       <c r="S19" s="10">
@@ -1406,10 +1406,10 @@
       <c r="H20" s="2">
         <v>3</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="17"/>
       <c r="L20" s="10">
         <v>3</v>
       </c>
@@ -1423,10 +1423,10 @@
       <c r="P20" s="2">
         <v>3</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="12">
         <v>44632.427083333336</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="12">
         <v>44632.513888888891</v>
       </c>
       <c r="S20" s="10">
@@ -1450,10 +1450,10 @@
       <c r="H21" s="2">
         <v>4</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="17"/>
       <c r="L21" s="10">
         <v>4</v>
       </c>
@@ -1467,10 +1467,10 @@
       <c r="P21" s="2">
         <v>5</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="12">
         <v>44632.447916666664</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="12">
         <v>44632.496527777781</v>
       </c>
       <c r="S21" s="10">
@@ -1494,10 +1494,10 @@
       <c r="H22" s="2">
         <v>5</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J22" s="17"/>
       <c r="L22" s="10">
         <v>5</v>
       </c>
@@ -1511,14 +1511,14 @@
       <c r="P22" s="10">
         <v>6</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="12">
         <v>44635.423611111109</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="12">
         <v>44635.482638888891</v>
       </c>
       <c r="S22" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
@@ -1538,10 +1538,10 @@
       <c r="H23" s="2">
         <v>6</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="17"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -1551,14 +1551,14 @@
       <c r="P23" s="10">
         <v>7</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="12">
         <v>44635.440972222219</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="12">
         <v>44635.503472222219</v>
       </c>
       <c r="S23" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
@@ -1578,10 +1578,10 @@
       <c r="H24" s="2">
         <v>7</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="J24" s="17"/>
       <c r="N24" s="9"/>
       <c r="O24" s="10">
         <v>7</v>
@@ -1589,14 +1589,14 @@
       <c r="P24" s="2">
         <v>1</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="12">
         <v>0.59722222222222221</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="12">
         <v>0.67013888888888884</v>
       </c>
       <c r="S24" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
@@ -1620,14 +1620,14 @@
       <c r="P25" s="2">
         <v>2</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="12">
         <v>0.69097222222222221</v>
       </c>
       <c r="S25" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
@@ -1638,14 +1638,14 @@
       <c r="P26" s="2">
         <v>3</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="12">
         <v>0.61111111111111105</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="12">
         <v>0.66319444444444442</v>
       </c>
       <c r="S26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -1656,34 +1656,34 @@
       <c r="P27" s="2">
         <v>5</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="12">
         <v>0.62152777777777779</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="12">
         <v>0.66666666666666663</v>
       </c>
       <c r="S27" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N28" s="9"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>62</v>
       </c>
       <c r="N29" s="9"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -1730,10 +1730,10 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="11">
         <v>25600</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <v>9800</v>
       </c>
       <c r="N31" s="9"/>
@@ -1759,10 +1759,10 @@
       <c r="F32" s="2">
         <v>2</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="11">
         <v>14200</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="11">
         <v>7650</v>
       </c>
       <c r="N32" s="9"/>
@@ -1788,10 +1788,10 @@
       <c r="F33" s="2">
         <v>3</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="11">
         <v>18000</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <v>12000</v>
       </c>
       <c r="N33" s="9"/>
@@ -1817,10 +1817,10 @@
       <c r="F34" s="2">
         <v>4</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="11">
         <v>21300</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <v>16400</v>
       </c>
       <c r="N34" s="9"/>
@@ -1846,10 +1846,10 @@
       <c r="F35" s="2">
         <v>1</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="11">
         <v>22100</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <v>12100</v>
       </c>
       <c r="N35" s="9"/>
@@ -1875,10 +1875,10 @@
       <c r="F36" s="2">
         <v>2</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="11">
         <v>15800</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <v>8400</v>
       </c>
       <c r="N36" s="9"/>
@@ -1904,10 +1904,10 @@
       <c r="F37" s="2">
         <v>3</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="11">
         <v>14300</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <v>7600</v>
       </c>
       <c r="N37" s="9"/>
@@ -1933,10 +1933,10 @@
       <c r="F38" s="2">
         <v>4</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="11">
         <v>19400</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <v>5800</v>
       </c>
       <c r="L38" s="9"/>
@@ -1964,10 +1964,10 @@
       <c r="F39" s="2">
         <v>5</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="11">
         <v>18600</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <v>7900</v>
       </c>
     </row>
@@ -1987,10 +1987,10 @@
       <c r="F40" s="2">
         <v>6</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="11">
         <v>16300</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <v>7800</v>
       </c>
     </row>
